--- a/biology/Médecine/GNU_Health/GNU_Health.xlsx
+++ b/biology/Médecine/GNU_Health/GNU_Health.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">GNU Health est un progiciel libre dans le domaine de la santé dont les fonctionnalités couvrent :
 le dossier médical personnel
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Luis Falcón créa GNU Health en 2008 comme projet pour la promotion de la santé et la prévention médicale dans les régions rurales. Son premier nom était Medical. Aujourd'hui il a évolué dans un Système Informatisé de Santé et Hôpital, avec une équipe internationale de contributeurs dans de très nombreuses disciplines. GNU Health est un projet de GNU Solidario, une organisation non gouvernementale (ONG) qui travaille dans les domaines de santé et éducation avec logiciel libre.
 </t>
@@ -546,7 +560,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">GNU Health est destiné à fonctionner dans les centres de santé, de prendre soin de la pratique clinique quotidienne ainsi que de la gestion des ressources des centres de santé publique.
 </t>
@@ -577,16 +593,53 @@
           <t>Fonctionnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>GNU Health utilise une approche modulaire avec différentes fonctionnalités qui peuvent être incluses pour répondre aux besoins des centres de santé publique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GNU Health utilise une approche modulaire avec différentes fonctionnalités qui peuvent être incluses pour répondre aux besoins des centres de santé publique.
 Les modules actuels sont :
-Événements majeurs du développement
-12 octobre 2008 : Enregistrement du projet sur SourceForge.net
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GNU_Health</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/GNU_Health</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctionnalités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Événements majeurs du développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12 octobre 2008 : Enregistrement du projet sur SourceForge.net
 2 novembre 2008 : Medical Version 0.0.2 est sur SourceForge.net
 15 avril 2010 : Medical est référencé sur le portail du gouvernement brésilien Portal do Software Público Brasiliero (SPB) (Portail des logiciels publics brésiliens).
 31 juillet 2010 : Le projet est référencé par la Communauté Européenne Observatoire et référentiel Open Source.
-18 avril 2011 : Medical change de framework de développement de OpenERP à Tryton[3].
+18 avril 2011 : Medical change de framework de développement de OpenERP à Tryton.
 12 juin 2011 : le projet Medical est renommé en GNU Health.
 16 août 2011 : version 1.3.0 libérée, supportant Tryton et PostgreSQL.
 26 août 2011 : Richard Stallman déclare GNU Health dans la liste officielle Paquets GNU. À ce moment le portail de développement passe de SourceForge.net à GNU Savannah.
@@ -601,40 +654,7 @@
 6 juillet 2014: Version 2.6.0 libérée avec la Fonction de hachage cryptographique pour vérifier les documents; signature digitale et intégration de GPG GNU Privacy Guard Integration.
 1er février 2015: Version 2.8.0 libérée. Ajoute compatibilité avec Tryton 3.4, agrégation des données et fonctionnalité de synchronisation pour environnements divisés, mise en œuvre de Universal Person Unique Identifier (PUID) et Universal Unique Identifier (UUID), un server HL7 FHIR, certificats de naissance et de décès et fonctionnalités crypto améliorées (GNU Privacy Guard integration).
 11 janvier 2016: Version 3.0.0 libérée. Compatibilité avec Tryton 3.8 (web client support inclus); module pour la fonctionnalité et Infirmité inspiré à l'International Classification of Functioning de l'OMS; Infirmité et Santé; fonctionnalité de base de Ophtalmologie et Optométrie et codes procédurales de l'OMS ICD9 CM Volume 3.
-2 juillet 2017: La série 3.2 est libérée. Les paquets GNU Health HMIS sont écrits en Python3. Histoire génétique et paquet UniProt sur les conditions liée aux protéines humaines améliorés; Emergency Management System; tarifs de services de Assurance; modules crypto améliorés en laboratoire et services; développement initial de GNU Health Federation e Thalamus[4].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GNU_Health</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/GNU_Health</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Impact Culturel</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>GNU Health a été présenté à la séance de World Health Organization "ICT for Improving Information and Accountability for Women’s and Children’s Health" en WSIS Forum 2013[5].
-GNU Health a été décerné le Free Software Foundation's 2011 Award for Projects of Social Benefit[6].
-GNU Health a remporté les prix PortalProgramas 2012, 2014 and 2015 for Most Revolutionary Free Software[7] et Software with Largest Potential of Growth in 2012[7].
-GNU Health a remporté les prix  Sonderpreis de Open Source Business Award 2016[8],[9]</t>
+2 juillet 2017: La série 3.2 est libérée. Les paquets GNU Health HMIS sont écrits en Python3. Histoire génétique et paquet UniProt sur les conditions liée aux protéines humaines améliorés; Emergency Management System; tarifs de services de Assurance; modules crypto améliorés en laboratoire et services; développement initial de GNU Health Federation e Thalamus.</t>
         </is>
       </c>
     </row>
@@ -659,49 +679,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Impact Culturel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>GNU Health a été présenté à la séance de World Health Organization "ICT for Improving Information and Accountability for Women’s and Children’s Health" en WSIS Forum 2013.
+GNU Health a été décerné le Free Software Foundation's 2011 Award for Projects of Social Benefit.
+GNU Health a remporté les prix PortalProgramas 2012, 2014 and 2015 for Most Revolutionary Free Software et Software with Largest Potential of Growth in 2012.
+GNU Health a remporté les prix  Sonderpreis de Open Source Business Award 2016,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GNU_Health</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/GNU_Health</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Caractéristiques techniques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La compatibilité avec le standard CalDAV[10] permet des paramétrages et des vues complexes des rendez-vous et hospitalisations.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La compatibilité avec le standard CalDAV permet des paramétrages et des vues complexes des rendez-vous et hospitalisations.
 GNU Health est par ailleurs totalement compatible avec Tryton.
 Le support du dépôt PyPI est également assuré.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>GNU_Health</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/GNU_Health</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GNU HealthCon</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GNU Health Con[11] est une conférence annuelle organisée par GNU Solidario. Cela permet aux développeurs, aux implémenteurs et aux membres de la communauté de se rencontrer en personne pendant trois jours. Il comprend des séances sur la médecine sociale, les discussions techniques, les cas de mise en œuvre et les ateliers.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -723,13 +749,48 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>GNU HealthCon</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GNU Health Con est une conférence annuelle organisée par GNU Solidario. Cela permet aux développeurs, aux implémenteurs et aux membres de la communauté de se rencontrer en personne pendant trois jours. Il comprend des séances sur la médecine sociale, les discussions techniques, les cas de mise en œuvre et les ateliers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GNU_Health</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/GNU_Health</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>GNU Health Social Medicine Awards</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La cérémonie de remise des prix de la médecine sociale de la GNU fait partie de GNUHealthCon, organisée par GNU Solidario. Les prix reconnaissent le rôle des individus et de l'organisation qui s'engagent à améliorer la vie des personnes défavorisées. Il existe trois catégories: Individuel, Organisation et GNU Health mise en œuvre.
-GNU Health Social Medicine awards 2016 [12].
+GNU Health Social Medicine awards 2016 .
 </t>
         </is>
       </c>
